--- a/pandas/工程テスト.xlsx
+++ b/pandas/工程テスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kondou\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kondou\Documents\GitHub\py-etc\pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDD20072-F291-436F-B669-A5DE6B26B42D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDBEFA4-09EA-4DA0-8741-3D0162589716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4350" yWindow="3285" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="31">
   <si>
     <t>工程コード</t>
   </si>
@@ -108,6 +108,20 @@
   </si>
   <si>
     <t>テスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有効</t>
+    <rPh sb="0" eb="2">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無効</t>
+    <rPh sb="0" eb="2">
+      <t>ムコウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -116,7 +130,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -181,7 +195,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -487,7 +501,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -566,7 +580,10 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
       </c>
       <c r="E2" s="2">
         <v>43898.958333333336</v>
@@ -613,7 +630,10 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
       </c>
       <c r="E3" s="2">
         <v>43898.958333333336</v>
@@ -660,7 +680,10 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
       </c>
       <c r="E4" s="2">
         <v>43898.958333333336</v>
@@ -707,7 +730,10 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
       </c>
       <c r="E5" s="2">
         <v>43898.958333333336</v>
@@ -754,7 +780,10 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
       </c>
       <c r="E6" s="2">
         <v>43898.958333333336</v>
@@ -801,7 +830,10 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
       </c>
       <c r="E7" s="2">
         <v>43898.958333333336</v>
@@ -848,7 +880,10 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
       </c>
       <c r="E8" s="2">
         <v>43898.958333333336</v>
@@ -895,7 +930,10 @@
         <v>24</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
       </c>
       <c r="E9" s="2">
         <v>43898.958333333336</v>
@@ -942,7 +980,10 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
       </c>
       <c r="E10" s="2">
         <v>43898.958333333336</v>
@@ -989,7 +1030,10 @@
         <v>26</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
       </c>
       <c r="E11" s="2">
         <v>43898.958333333336</v>
